--- a/lang.xlsx
+++ b/lang.xlsx
@@ -1140,6 +1140,1278 @@
     <t>分享</t>
   </si>
   <si>
+    <t>Shareto</t>
+  </si>
+  <si>
+    <t>分享至</t>
+  </si>
+  <si>
+    <t>Share to</t>
+  </si>
+  <si>
+    <t>Saveimage</t>
+  </si>
+  <si>
+    <t>保存为图片</t>
+  </si>
+  <si>
+    <t>Save as image</t>
+  </si>
+  <si>
+    <t>Picturesaved</t>
+  </si>
+  <si>
+    <t>图片已保存至相册</t>
+  </si>
+  <si>
+    <t>Picture has been saved to album</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>分享给朋友</t>
+  </si>
+  <si>
+    <t>ImportNFT</t>
+  </si>
+  <si>
+    <t>导入NFT</t>
+  </si>
+  <si>
+    <t>Import NFT</t>
+  </si>
+  <si>
+    <t>Contractadress</t>
+  </si>
+  <si>
+    <t>合约地址</t>
+  </si>
+  <si>
+    <t>Contract adress</t>
+  </si>
+  <si>
+    <t>TokenID</t>
+  </si>
+  <si>
+    <t>代币ID#</t>
+  </si>
+  <si>
+    <t>Token ID#</t>
+  </si>
+  <si>
+    <t>InsufficientGasfee</t>
+  </si>
+  <si>
+    <t>手续费不足</t>
+  </si>
+  <si>
+    <t>Insufficient Gasfee</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>编辑资料</t>
+  </si>
+  <si>
+    <t>加入社区</t>
+  </si>
+  <si>
+    <t>好友关系</t>
+  </si>
+  <si>
+    <t>Unfriend</t>
+  </si>
+  <si>
+    <t>解除</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>法币</t>
+  </si>
+  <si>
+    <t>RPCSetting</t>
+  </si>
+  <si>
+    <t>RPC设置</t>
+  </si>
+  <si>
+    <t>RPC Setting</t>
+  </si>
+  <si>
+    <t>SecuritySetting</t>
+  </si>
+  <si>
+    <t>安全设置</t>
+  </si>
+  <si>
+    <t>Security Setting</t>
+  </si>
+  <si>
+    <t>Privacyaggrment</t>
+  </si>
+  <si>
+    <t>隐私政策</t>
+  </si>
+  <si>
+    <t>Privacy aggrment</t>
+  </si>
+  <si>
+    <t>Aboutkonnect</t>
+  </si>
+  <si>
+    <t>关于Konnect</t>
+  </si>
+  <si>
+    <t>About konnect</t>
+  </si>
+  <si>
+    <t>addnode</t>
+  </si>
+  <si>
+    <t>添加自定义节点</t>
+  </si>
+  <si>
+    <t>Add Custom Node</t>
+  </si>
+  <si>
+    <t>Changepwd</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Faceorfngerprint</t>
+  </si>
+  <si>
+    <t>指纹/FaceID 验证</t>
+  </si>
+  <si>
+    <t>FaceID/fngerprint payment（设备有哪个显哪个）</t>
+  </si>
+  <si>
+    <t>Viewseed</t>
+  </si>
+  <si>
+    <t>查看助记词</t>
+  </si>
+  <si>
+    <t>View my seed phase</t>
+  </si>
+  <si>
+    <t>Viewkey</t>
+  </si>
+  <si>
+    <t>查看私钥</t>
+  </si>
+  <si>
+    <t>View my private key</t>
+  </si>
+  <si>
+    <t>inconsistenttips</t>
+  </si>
+  <si>
+    <t>密码输入不一致，请重新输入</t>
+  </si>
+  <si>
+    <t>Password input is inconsistent, please re-enter</t>
+  </si>
+  <si>
+    <t>Favorites</t>
+  </si>
+  <si>
+    <t>收藏</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>新品</t>
+  </si>
+  <si>
+    <t>Airdorp</t>
+  </si>
+  <si>
+    <t>空投</t>
+  </si>
+  <si>
+    <t>NFT</t>
+  </si>
+  <si>
+    <t>Bridge</t>
+  </si>
+  <si>
+    <t>跨链桥</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>社交</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>借贷</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>工具</t>
+  </si>
+  <si>
+    <t>Accessto</t>
+  </si>
+  <si>
+    <t>即将访问第三方Dapp</t>
+  </si>
+  <si>
+    <t>Access to third-party Dapps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selectconnectwallet </t>
+  </si>
+  <si>
+    <t>选择连接钱包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select connect wallet </t>
+  </si>
+  <si>
+    <t>Connectdapp</t>
+  </si>
+  <si>
+    <t>连接dapp</t>
+  </si>
+  <si>
+    <t>Connect dapp</t>
+  </si>
+  <si>
+    <t>enterwebsite</t>
+  </si>
+  <si>
+    <t>输入网站内容或项目名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter website content or search project name. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">History </t>
+  </si>
+  <si>
+    <t>历史记录</t>
+  </si>
+  <si>
+    <t>Popular</t>
+  </si>
+  <si>
+    <t>热门项目</t>
+  </si>
+  <si>
+    <t>Recordsp</t>
+  </si>
+  <si>
+    <t>请记录助记词</t>
+  </si>
+  <si>
+    <t>Record The Seed Phase</t>
+  </si>
+  <si>
+    <t>dontsreenshot</t>
+  </si>
+  <si>
+    <t>请勿截图保存助记词，联网设备可能会泄露信息，强烈建议您将助记词抄写备份并妥善保存</t>
+  </si>
+  <si>
+    <t>Do not take screenshots to save the mnemonic words. Networked devices may leak information. It is strongly recommended that you copy and backup the mnemonic words and keep them properly.</t>
+  </si>
+  <si>
+    <t>clickview</t>
+  </si>
+  <si>
+    <t>点击查看助记词</t>
+  </si>
+  <si>
+    <t>Click to view</t>
+  </si>
+  <si>
+    <t>makesure</t>
+  </si>
+  <si>
+    <t>请确保周围没有其他人及摄像头</t>
+  </si>
+  <si>
+    <t>Please make sure there are no other people and cameras around.</t>
+  </si>
+  <si>
+    <t>backupsp</t>
+  </si>
+  <si>
+    <t>Back Up Seed Phase</t>
+  </si>
+  <si>
+    <t>backuppk</t>
+  </si>
+  <si>
+    <t>备份私钥</t>
+  </si>
+  <si>
+    <t>Back Up Private Key</t>
+  </si>
+  <si>
+    <t>disclose</t>
+  </si>
+  <si>
+    <t>切勿向他人透露您的助记词，并通过线下方式保管。一旦泄露，您将可能失去全部资产且无法追回</t>
+  </si>
+  <si>
+    <t>Do not disclose your seed phase to others, and keep them offline. Once leaked, you may lose all your assets and cannot be recovered.</t>
+  </si>
+  <si>
+    <t>spexp</t>
+  </si>
+  <si>
+    <t>助记词是用于恢复钱包资产的方式之一</t>
+  </si>
+  <si>
+    <t>Seed phase are one of the ways to restore wallet assets</t>
+  </si>
+  <si>
+    <t>donotleaked</t>
+  </si>
+  <si>
+    <t>切勿向他人透露您的私钥，并通过线下方式保管。一旦泄露，您将可能失去全部资产且无法追回</t>
+  </si>
+  <si>
+    <t>Do not disclose your private key to others, and keep them offline. Once leaked, you may lose all your assets and cannot be recovered.</t>
+  </si>
+  <si>
+    <t>pkexp</t>
+  </si>
+  <si>
+    <t>私钥是用于恢复钱包资产的方式之一</t>
+  </si>
+  <si>
+    <t>Private key are one of the ways to restore wallet assets</t>
+  </si>
+  <si>
+    <t>RecordPK</t>
+  </si>
+  <si>
+    <t>请记录私钥</t>
+  </si>
+  <si>
+    <t>Record The Private Key</t>
+  </si>
+  <si>
+    <t>initializing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    初始化中...</t>
+  </si>
+  <si>
+    <t>Initializing...</t>
+  </si>
+  <si>
+    <t>create_new_wallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Create new wallet</t>
+  </si>
+  <si>
+    <t>import_an_existing_wallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    导入已有钱包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Import an existing wallet</t>
+  </si>
+  <si>
+    <t>coming_soon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    即将到来</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Coming soon</t>
+  </si>
+  <si>
+    <t>security_tips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    安全提示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Security Tips</t>
+  </si>
+  <si>
+    <t>tips_title_assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    资产由您个人掌控</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Assets are under your personal control</t>
+  </si>
+  <si>
+    <t>tips_content_assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    项目名不会保存你的助记词/私钥等信息，请注意财产安全，当前钱包仅支持EVM兼容链地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Konnect will not save your Secret Recovery Phrase or your private key  please pay attention to the security of your assets. The current wallet only supports EVM compatible chain addrss</t>
+  </si>
+  <si>
+    <t>tips_title_chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    No on-chain interactions are recorded</t>
+  </si>
+  <si>
+    <t>tips_content_chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    项目名不会记录您的链上转账/交互信息，仅做链上查询</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Konnect will not record your on-chain transfers/interaction informationbut on-chain queries only.</t>
+  </si>
+  <si>
+    <t>tips_title_bewareOfFraud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Beware of Fraud</t>
+  </si>
+  <si>
+    <t>tips_content_bewareOfFraud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    请勿与任何人分享你的助记词/私钥等信息以防资产损失</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Please do not share your Secret Recovery Phrase or your private key information with anyone to prevent the loss of assets</t>
+  </si>
+  <si>
+    <t>i_already_know</t>
+  </si>
+  <si>
+    <t>我已知晓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I already know</t>
+  </si>
+  <si>
+    <t>import_wallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    导入钱包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Import your wallet</t>
+  </si>
+  <si>
+    <t>hint_wallet_import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    输入助记词用空格分割或明文私钥地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Import your Secret Recovery Phrase(separated by spaces)or your plaintext private key addresses</t>
+  </si>
+  <si>
+    <t>confirm_importing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    确认导入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Confirm Importing</t>
+  </si>
+  <si>
+    <t>all_networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    全部网络</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    All Networks</t>
+  </si>
+  <si>
+    <t>receive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    收款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Receive</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>发送</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Send</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    记录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Record</t>
+  </si>
+  <si>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    交换</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Exchange</t>
+  </si>
+  <si>
+    <t>select_network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    选择网络</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Select Network</t>
+  </si>
+  <si>
+    <t>please_enter_content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    请输入内容</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>input_format_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    输入格式错误!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Input format error!</t>
+  </si>
+  <si>
+    <t>loading</t>
+  </si>
+  <si>
+    <t>加载中...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    loading...</t>
+  </si>
+  <si>
+    <t>login_failed</t>
+  </si>
+  <si>
+    <t>登录失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Login failed</t>
+  </si>
+  <si>
+    <t>synchronized_all_assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    已同步以下链的所有资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    All assets of the following chains have been synchronized</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    开始使用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Start</t>
+  </si>
+  <si>
+    <t>select_currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    选择货币</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Select Currency</t>
+  </si>
+  <si>
+    <t>search_currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    搜索币种</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    search</t>
+  </si>
+  <si>
+    <t>insufficient_fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    余额不足</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Insufficient Fund</t>
+  </si>
+  <si>
+    <t>insufficient_fund_tips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    您的余额不足以支付Gas费，请充值后再试。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    You don't have enough fund for the Gas fee.Please try again after recharging.</t>
+  </si>
+  <si>
+    <t>i_see</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    知道了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I see</t>
+  </si>
+  <si>
+    <t>set_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Set amount</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    确认</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    OK</t>
+  </si>
+  <si>
+    <t>receiving_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    收款地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Receiving address</t>
+  </si>
+  <si>
+    <t>input_receiving_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    输入收款地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    input receiving address</t>
+  </si>
+  <si>
+    <t>address_book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    通讯录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AddressBook</t>
+  </si>
+  <si>
+    <t>Scan_QR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    扫码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Scan QR</t>
+  </si>
+  <si>
+    <t>Paste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    粘贴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Paste</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    最大值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Max</t>
+  </si>
+  <si>
+    <t>My_wallet_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    我的钱包地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    My wallet address</t>
+  </si>
+  <si>
+    <t>Friends_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    朋友地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Friends address</t>
+  </si>
+  <si>
+    <t>Transfer_overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    转账概览</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Transfer overview</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    网络</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Network</t>
+  </si>
+  <si>
+    <t>Gasfee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Gasfee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Confirm</t>
+  </si>
+  <si>
+    <t>TOKEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    代币</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TOKEN</t>
+  </si>
+  <si>
+    <t>Only_support_receiving_from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    仅支持接收</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Only support receiving from</t>
+  </si>
+  <si>
+    <t>network_assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    网络资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    network assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    分享</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Share</t>
+  </si>
+  <si>
+    <t>ShareTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    分享至</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Share to</t>
+  </si>
+  <si>
+    <t>Save_as_Picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    保存为图片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Save as Picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    处理中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    processing</t>
+  </si>
+  <si>
+    <t>Send_success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    success</t>
+  </si>
+  <si>
+    <t>Send_failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Time </t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Type</t>
+  </si>
+  <si>
+    <t>Send_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    发送地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Send_address</t>
+  </si>
+  <si>
+    <t>Receive_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    接收地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Receive_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    钱包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Wallet</t>
+  </si>
+  <si>
+    <t>Only_look_my_record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    只看我的记录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Only Look my record</t>
+  </si>
+  <si>
+    <t>Add_wallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    添加钱包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Add wallet</t>
+  </si>
+  <si>
+    <t>Create_wallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    创建钱包 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Create wallet</t>
+  </si>
+  <si>
+    <t>Generate_a_new_multi_chain_wallet</t>
+  </si>
+  <si>
+    <t>生成新的多链钱包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Generate a new multi-chain wallet</t>
+  </si>
+  <si>
+    <t>Import_with_seed_phraseor_from_cloud_backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    使用助记词或从云端导入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Import with seed phraseor from cloud backup</t>
+  </si>
+  <si>
+    <t>iCloud_backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    iCloud备份</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    iCloud backup</t>
+  </si>
+  <si>
+    <t>Get_seed_phrase_from_cloud_backup_to_restore_wallets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    从云备份中获取助记词以恢复钱包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Get seed phrase from cloud backup to restore wallets</t>
+  </si>
+  <si>
+    <t>Seed_phrase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    助记词</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Seed phrase</t>
+  </si>
+  <si>
+    <t>word_seed_phrase_are_supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    支持121824个单词的助记词</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    121824-word seed phrase are supported</t>
+  </si>
+  <si>
+    <t>token_manage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    币种管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Token manage</t>
+  </si>
+  <si>
+    <t>custom_token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    自定义币种</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Custom token</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    合约</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Contract</t>
+  </si>
+  <si>
+    <t>Enter_contract_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    输入合约地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Enter contract address</t>
+  </si>
+  <si>
+    <t>Add_crypto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    添加加密货币</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Add crypto</t>
+  </si>
+  <si>
+    <t>Backup_wallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    备份钱包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Backup wallet</t>
+  </si>
+  <si>
+    <t>iCloud_Backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    云备份</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    iCloud Backup</t>
+  </si>
+  <si>
+    <t>Mnemonic_backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    助记词备份</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mnemonic backup</t>
+  </si>
+  <si>
+    <t>Recorded_next_step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    已记录，下一步</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Recorded next step</t>
+  </si>
+  <si>
+    <t>Please_record_the_mnemonics_below</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    请记录下方助记词</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Please record the mnemonics below</t>
+  </si>
+  <si>
+    <t>Please_do_not_take_screenshots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    请勿截图保存助记词，联网设备可能会泄露信息，强烈建议您将助记词抄写备份并妥善保管</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Please do not take screenshots to save mnemonics as connected devices may leak information. We strongly recommend that you copy and backup the mnemonics and keep them properly</t>
+  </si>
+  <si>
+    <t>record_mnemonics_tips_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    切勿向他人透露您的助记词，并通过线下方式保管。一旦助记词泄露，您将可能失去全部资产且无法追回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Do not disclose your mnemonics to others and keep them offline. Once the mnemonic is leaked you may lose all assets and cannot recover them</t>
+  </si>
+  <si>
+    <t>record_mnemonics_tips_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    助记词是用于恢复钱包资产的唯一方式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mnemonics are the only way to restore wallet assets</t>
+  </si>
+  <si>
+    <t>customized_your_KID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    定制你的KID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    customized your KID</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    头像</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Avatar</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    上传</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Upload</t>
+  </si>
+  <si>
+    <t>Choose_NFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    选择 NFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Choose NFT</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>昵称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Nickname</t>
+  </si>
+  <si>
+    <t>Complete_setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    完成设置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Complete setup</t>
+  </si>
+  <si>
+    <t>Later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    稍后</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Later</t>
+  </si>
+  <si>
+    <t>Asset_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    资产价值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Asset value</t>
+  </si>
+  <si>
+    <t>Join_community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    加入社群</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Join group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    好友关系</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Friends</t>
+  </si>
+  <si>
+    <t>Scan_join_konnect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    扫描加入Konnect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Scan to join konnect</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    share</t>
+  </si>
+  <si>
+    <t>Download_image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Download</t>
+  </si>
+  <si>
+    <t>Copy_link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    复制链接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Copy link</t>
+  </si>
+  <si>
+    <t>Exclusively_generated_for_your_kid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    已为你生成专属KID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Exclusively generated for your KID</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    取消</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cancel</t>
+  </si>
+  <si>
+    <t>wallet_tip1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    如丢失了助记词或私钥，将无法恢复钱包资产；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    If seed phase or private key is lost wallet assets cannot be recovered</t>
+  </si>
+  <si>
+    <t>wallet_tip2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    请勿与任何人分享你的助记词或私钥，否则资产会有高丢失风险。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Do not share your seed phase or private key with anyone otherwise there is a high risk of asset loss.</t>
+  </si>
+  <si>
+    <t>wallet_tip3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    请妥善保存你的助记词或私钥。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Keep your seed phase and private key safe.</t>
+  </si>
+  <si>
+    <t>havejoined</t>
+  </si>
+  <si>
+    <t>{数字}已加入</t>
+  </si>
+  <si>
+    <t>{数字} have joined</t>
+  </si>
+  <si>
+    <t>InsufficientGasfeenotice</t>
+  </si>
+  <si>
+    <t>{主网币种}不足以支付交易手续费，请充值部分{主网币种}至{主网}以支付网络手续费</t>
+  </si>
+  <si>
+    <t>The {主网币种} balance is not enough for transfer.please recharge part of{主网币种} to pay for thenetwork charge of {主网}</t>
+  </si>
+  <si>
     <t>Onlysendadress</t>
   </si>
   <si>
@@ -1147,1285 +2419,13 @@
   </si>
   <si>
     <t>Only send {变量} network assets to this adress</t>
-  </si>
-  <si>
-    <t>Shareto</t>
-  </si>
-  <si>
-    <t>分享至</t>
-  </si>
-  <si>
-    <t>Share to</t>
-  </si>
-  <si>
-    <t>Saveimage</t>
-  </si>
-  <si>
-    <t>保存为图片</t>
-  </si>
-  <si>
-    <t>Save as image</t>
-  </si>
-  <si>
-    <t>Picturesaved</t>
-  </si>
-  <si>
-    <t>图片已保存至相册</t>
-  </si>
-  <si>
-    <t>Picture has been saved to album</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>分享给朋友</t>
-  </si>
-  <si>
-    <t>ImportNFT</t>
-  </si>
-  <si>
-    <t>导入NFT</t>
-  </si>
-  <si>
-    <t>Import NFT</t>
-  </si>
-  <si>
-    <t>Contractadress</t>
-  </si>
-  <si>
-    <t>合约地址</t>
-  </si>
-  <si>
-    <t>Contract adress</t>
-  </si>
-  <si>
-    <t>TokenID</t>
-  </si>
-  <si>
-    <t>代币ID#</t>
-  </si>
-  <si>
-    <t>Token ID#</t>
-  </si>
-  <si>
-    <t>InsufficientGasfee</t>
-  </si>
-  <si>
-    <t>手续费不足</t>
-  </si>
-  <si>
-    <t>Insufficient Gasfee</t>
-  </si>
-  <si>
-    <t>InsufficientGasfeenotice</t>
-  </si>
-  <si>
-    <t>{主网币种}不足以支付交易手续费，请充值部分{主网币种}至{主网}以支付网络手续费</t>
-  </si>
-  <si>
-    <t>The {主网币种} balance is not enough for transfer.please recharge part of{主网币种} to pay for thenetwork charge of {主网}</t>
-  </si>
-  <si>
-    <t>Edit</t>
-  </si>
-  <si>
-    <t>编辑资料</t>
-  </si>
-  <si>
-    <t>加入社区</t>
-  </si>
-  <si>
-    <t>好友关系</t>
-  </si>
-  <si>
-    <t>havejoined</t>
-  </si>
-  <si>
-    <t>{数字}已加入</t>
-  </si>
-  <si>
-    <t>{数字} have joined</t>
-  </si>
-  <si>
-    <t>Unfriend</t>
-  </si>
-  <si>
-    <t>解除</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>语言</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>法币</t>
-  </si>
-  <si>
-    <t>RPCSetting</t>
-  </si>
-  <si>
-    <t>RPC设置</t>
-  </si>
-  <si>
-    <t>RPC Setting</t>
-  </si>
-  <si>
-    <t>SecuritySetting</t>
-  </si>
-  <si>
-    <t>安全设置</t>
-  </si>
-  <si>
-    <t>Security Setting</t>
-  </si>
-  <si>
-    <t>Privacyaggrment</t>
-  </si>
-  <si>
-    <t>隐私政策</t>
-  </si>
-  <si>
-    <t>Privacy aggrment</t>
-  </si>
-  <si>
-    <t>Aboutkonnect</t>
-  </si>
-  <si>
-    <t>关于Konnect</t>
-  </si>
-  <si>
-    <t>About konnect</t>
-  </si>
-  <si>
-    <t>addnode</t>
-  </si>
-  <si>
-    <t>添加自定义节点</t>
-  </si>
-  <si>
-    <t>Add Custom Node</t>
-  </si>
-  <si>
-    <t>Changepwd</t>
-  </si>
-  <si>
-    <t>修改密码</t>
-  </si>
-  <si>
-    <t>Change password</t>
-  </si>
-  <si>
-    <t>Faceorfngerprint</t>
-  </si>
-  <si>
-    <t>指纹/FaceID 验证</t>
-  </si>
-  <si>
-    <t>FaceID/fngerprint payment（设备有哪个显哪个）</t>
-  </si>
-  <si>
-    <t>Viewseed</t>
-  </si>
-  <si>
-    <t>查看助记词</t>
-  </si>
-  <si>
-    <t>View my seed phase</t>
-  </si>
-  <si>
-    <t>Viewkey</t>
-  </si>
-  <si>
-    <t>查看私钥</t>
-  </si>
-  <si>
-    <t>View my private key</t>
-  </si>
-  <si>
-    <t>inconsistenttips</t>
-  </si>
-  <si>
-    <t>密码输入不一致，请重新输入</t>
-  </si>
-  <si>
-    <t>Password input is inconsistent, please re-enter</t>
-  </si>
-  <si>
-    <t>Favorites</t>
-  </si>
-  <si>
-    <t>收藏</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>新品</t>
-  </si>
-  <si>
-    <t>Airdorp</t>
-  </si>
-  <si>
-    <t>空投</t>
-  </si>
-  <si>
-    <t>NFT</t>
-  </si>
-  <si>
-    <t>Bridge</t>
-  </si>
-  <si>
-    <t>跨链桥</t>
-  </si>
-  <si>
-    <t>Social</t>
-  </si>
-  <si>
-    <t>社交</t>
-  </si>
-  <si>
-    <t>Game</t>
-  </si>
-  <si>
-    <t>游戏</t>
-  </si>
-  <si>
-    <t>Loan</t>
-  </si>
-  <si>
-    <t>借贷</t>
-  </si>
-  <si>
-    <t>Tools</t>
-  </si>
-  <si>
-    <t>工具</t>
-  </si>
-  <si>
-    <t>Accessto</t>
-  </si>
-  <si>
-    <t>即将访问第三方Dapp</t>
-  </si>
-  <si>
-    <t>Access to third-party Dapps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selectconnectwallet </t>
-  </si>
-  <si>
-    <t>选择连接钱包</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select connect wallet </t>
-  </si>
-  <si>
-    <t>Connectdapp</t>
-  </si>
-  <si>
-    <t>连接dapp</t>
-  </si>
-  <si>
-    <t>Connect dapp</t>
-  </si>
-  <si>
-    <t>enterwebsite</t>
-  </si>
-  <si>
-    <t>输入网站内容或项目名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter website content or search project name. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">History </t>
-  </si>
-  <si>
-    <t>历史记录</t>
-  </si>
-  <si>
-    <t>Popular</t>
-  </si>
-  <si>
-    <t>热门项目</t>
-  </si>
-  <si>
-    <t>Recordsp</t>
-  </si>
-  <si>
-    <t>请记录助记词</t>
-  </si>
-  <si>
-    <t>Record The Seed Phase</t>
-  </si>
-  <si>
-    <t>dontsreenshot</t>
-  </si>
-  <si>
-    <t>请勿截图保存助记词，联网设备可能会泄露信息，强烈建议您将助记词抄写备份并妥善保存</t>
-  </si>
-  <si>
-    <t>Do not take screenshots to save the mnemonic words. Networked devices may leak information. It is strongly recommended that you copy and backup the mnemonic words and keep them properly.</t>
-  </si>
-  <si>
-    <t>clickview</t>
-  </si>
-  <si>
-    <t>点击查看助记词</t>
-  </si>
-  <si>
-    <t>Click to view</t>
-  </si>
-  <si>
-    <t>makesure</t>
-  </si>
-  <si>
-    <t>请确保周围没有其他人及摄像头</t>
-  </si>
-  <si>
-    <t>Please make sure there are no other people and cameras around.</t>
-  </si>
-  <si>
-    <t>backupsp</t>
-  </si>
-  <si>
-    <t>Back Up Seed Phase</t>
-  </si>
-  <si>
-    <t>backuppk</t>
-  </si>
-  <si>
-    <t>备份私钥</t>
-  </si>
-  <si>
-    <t>Back Up Private Key</t>
-  </si>
-  <si>
-    <t>disclose</t>
-  </si>
-  <si>
-    <t>切勿向他人透露您的助记词，并通过线下方式保管。一旦泄露，您将可能失去全部资产且无法追回</t>
-  </si>
-  <si>
-    <t>Do not disclose your seed phase to others, and keep them offline. Once leaked, you may lose all your assets and cannot be recovered.</t>
-  </si>
-  <si>
-    <t>spexp</t>
-  </si>
-  <si>
-    <t>助记词是用于恢复钱包资产的方式之一</t>
-  </si>
-  <si>
-    <t>Seed phase are one of the ways to restore wallet assets</t>
-  </si>
-  <si>
-    <t>donotleaked</t>
-  </si>
-  <si>
-    <t>切勿向他人透露您的私钥，并通过线下方式保管。一旦泄露，您将可能失去全部资产且无法追回</t>
-  </si>
-  <si>
-    <t>Do not disclose your private key to others, and keep them offline. Once leaked, you may lose all your assets and cannot be recovered.</t>
-  </si>
-  <si>
-    <t>pkexp</t>
-  </si>
-  <si>
-    <t>私钥是用于恢复钱包资产的方式之一</t>
-  </si>
-  <si>
-    <t>Private key are one of the ways to restore wallet assets</t>
-  </si>
-  <si>
-    <t>RecordPK</t>
-  </si>
-  <si>
-    <t>请记录私钥</t>
-  </si>
-  <si>
-    <t>Record The Private Key</t>
-  </si>
-  <si>
-    <t>initializing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    初始化中...</t>
-  </si>
-  <si>
-    <t>Initializing...</t>
-  </si>
-  <si>
-    <t>create_new_wallet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Create new wallet</t>
-  </si>
-  <si>
-    <t>import_an_existing_wallet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    导入已有钱包</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Import an existing wallet</t>
-  </si>
-  <si>
-    <t>coming_soon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    即将到来</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Coming soon</t>
-  </si>
-  <si>
-    <t>security_tips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    安全提示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Security Tips</t>
-  </si>
-  <si>
-    <t>tips_title_assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    资产由您个人掌控</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Assets are under your personal control</t>
-  </si>
-  <si>
-    <t>tips_content_assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    项目名不会保存你的助记词/私钥等信息，请注意财产安全，当前钱包仅支持EVM兼容链地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Konnect will not save your Secret Recovery Phrase or your private key  please pay attention to the security of your assets. The current wallet only supports EVM compatible chain addrss</t>
-  </si>
-  <si>
-    <t>tips_title_chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    No on-chain interactions are recorded</t>
-  </si>
-  <si>
-    <t>tips_content_chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    项目名不会记录您的链上转账/交互信息，仅做链上查询</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Konnect will not record your on-chain transfers/interaction informationbut on-chain queries only.</t>
-  </si>
-  <si>
-    <t>tips_title_bewareOfFraud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Beware of Fraud</t>
-  </si>
-  <si>
-    <t>tips_content_bewareOfFraud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    请勿与任何人分享你的助记词/私钥等信息以防资产损失</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Please do not share your Secret Recovery Phrase or your private key information with anyone to prevent the loss of assets</t>
-  </si>
-  <si>
-    <t>i_already_know</t>
-  </si>
-  <si>
-    <t>我已知晓</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    I already know</t>
-  </si>
-  <si>
-    <t>import_wallet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    导入钱包</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Import your wallet</t>
-  </si>
-  <si>
-    <t>hint_wallet_import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    输入助记词用空格分割或明文私钥地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Import your Secret Recovery Phrase(separated by spaces)or your plaintext private key addresses</t>
-  </si>
-  <si>
-    <t>confirm_importing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    确认导入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Confirm Importing</t>
-  </si>
-  <si>
-    <t>all_networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    全部网络</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    All Networks</t>
-  </si>
-  <si>
-    <t>receive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    收款</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Receive</t>
-  </si>
-  <si>
-    <t>send</t>
-  </si>
-  <si>
-    <t>发送</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Send</t>
-  </si>
-  <si>
-    <t>record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    记录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Record</t>
-  </si>
-  <si>
-    <t>exchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    交换</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Exchange</t>
-  </si>
-  <si>
-    <t>select_network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    选择网络</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Select Network</t>
-  </si>
-  <si>
-    <t>please_enter_content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    请输入内容</t>
-  </si>
-  <si>
-    <t>Enter</t>
-  </si>
-  <si>
-    <t>input_format_error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    输入格式错误!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Input format error!</t>
-  </si>
-  <si>
-    <t>loading</t>
-  </si>
-  <si>
-    <t>加载中...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    loading...</t>
-  </si>
-  <si>
-    <t>login_failed</t>
-  </si>
-  <si>
-    <t>登录失败</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Login failed</t>
-  </si>
-  <si>
-    <t>synchronized_all_assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    已同步以下链的所有资产</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    All assets of the following chains have been synchronized</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    开始使用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Start</t>
-  </si>
-  <si>
-    <t>select_currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    选择货币</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Select Currency</t>
-  </si>
-  <si>
-    <t>search_currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    搜索币种</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    search</t>
-  </si>
-  <si>
-    <t>insufficient_fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    余额不足</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Insufficient Fund</t>
-  </si>
-  <si>
-    <t>insufficient_fund_tips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    您的余额不足以支付Gas费，请充值后再试。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    You don't have enough fund for the Gas fee.Please try again after recharging.</t>
-  </si>
-  <si>
-    <t>i_see</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    知道了</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    I see</t>
-  </si>
-  <si>
-    <t>set_amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    设置金额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Set amount</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    确认</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    OK</t>
-  </si>
-  <si>
-    <t>receiving_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    收款地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Receiving address</t>
-  </si>
-  <si>
-    <t>input_receiving_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    输入收款地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    input receiving address</t>
-  </si>
-  <si>
-    <t>address_book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    通讯录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    AddressBook</t>
-  </si>
-  <si>
-    <t>Scan_QR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    扫码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Scan QR</t>
-  </si>
-  <si>
-    <t>Paste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    粘贴</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Paste</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    最大值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Max</t>
-  </si>
-  <si>
-    <t>My_wallet_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    我的钱包地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    My wallet address</t>
-  </si>
-  <si>
-    <t>Friends_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    朋友地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Friends address</t>
-  </si>
-  <si>
-    <t>Transfer_overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    转账概览</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Transfer overview</t>
-  </si>
-  <si>
-    <t>Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    网络</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Network</t>
-  </si>
-  <si>
-    <t>Gasfee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Gasfee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Confirm</t>
-  </si>
-  <si>
-    <t>TOKEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    代币</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TOKEN</t>
-  </si>
-  <si>
-    <t>Only_support_receiving_from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    仅支持接收</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Only support receiving from</t>
-  </si>
-  <si>
-    <t>network_assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    网络资产</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    network assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    分享</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Share</t>
-  </si>
-  <si>
-    <t>ShareTo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    分享至</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Share to</t>
-  </si>
-  <si>
-    <t>Save_as_Picture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    保存为图片</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Save as Picture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    处理中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    processing</t>
-  </si>
-  <si>
-    <t>Send_success</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    success</t>
-  </si>
-  <si>
-    <t>Send_failed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    失败</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    failed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Time </t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Type</t>
-  </si>
-  <si>
-    <t>Send_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    发送地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Send_address</t>
-  </si>
-  <si>
-    <t>Receive_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    接收地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Receive_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    钱包</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Wallet</t>
-  </si>
-  <si>
-    <t>Only_look_my_record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    只看我的记录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Only Look my record</t>
-  </si>
-  <si>
-    <t>Add_wallet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    添加钱包</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Add wallet</t>
-  </si>
-  <si>
-    <t>Create_wallet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    创建钱包 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Create wallet</t>
-  </si>
-  <si>
-    <t>Generate_a_new_multi_chain_wallet</t>
-  </si>
-  <si>
-    <t>生成新的多链钱包</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Generate a new multi-chain wallet</t>
-  </si>
-  <si>
-    <t>Import_with_seed_phraseor_from_cloud_backup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    使用助记词或从云端导入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Import with seed phraseor from cloud backup</t>
-  </si>
-  <si>
-    <t>iCloud_backup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    iCloud备份</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    iCloud backup</t>
-  </si>
-  <si>
-    <t>Get_seed_phrase_from_cloud_backup_to_restore_wallets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    从云备份中获取助记词以恢复钱包</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Get seed phrase from cloud backup to restore wallets</t>
-  </si>
-  <si>
-    <t>Seed_phrase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    助记词</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Seed phrase</t>
-  </si>
-  <si>
-    <t>word_seed_phrase_are_supported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    支持121824个单词的助记词</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    121824-word seed phrase are supported</t>
-  </si>
-  <si>
-    <t>token_manage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    币种管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Token manage</t>
-  </si>
-  <si>
-    <t>custom_token</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    自定义币种</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Custom token</t>
-  </si>
-  <si>
-    <t>Contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    合约</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Contract</t>
-  </si>
-  <si>
-    <t>Enter_contract_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    输入合约地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Enter contract address</t>
-  </si>
-  <si>
-    <t>Add_crypto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    添加加密货币</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Add crypto</t>
-  </si>
-  <si>
-    <t>Backup_wallet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    备份钱包</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Backup wallet</t>
-  </si>
-  <si>
-    <t>iCloud_Backup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    云备份</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    iCloud Backup</t>
-  </si>
-  <si>
-    <t>Mnemonic_backup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    助记词备份</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mnemonic backup</t>
-  </si>
-  <si>
-    <t>Recorded_next_step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    已记录，下一步</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Recorded next step</t>
-  </si>
-  <si>
-    <t>Please_record_the_mnemonics_below</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    请记录下方助记词</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Please record the mnemonics below</t>
-  </si>
-  <si>
-    <t>Please_do_not_take_screenshots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    请勿截图保存助记词，联网设备可能会泄露信息，强烈建议您将助记词抄写备份并妥善保管</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Please do not take screenshots to save mnemonics as connected devices may leak information. We strongly recommend that you copy and backup the mnemonics and keep them properly</t>
-  </si>
-  <si>
-    <t>record_mnemonics_tips_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    切勿向他人透露您的助记词，并通过线下方式保管。一旦助记词泄露，您将可能失去全部资产且无法追回</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Do not disclose your mnemonics to others and keep them offline. Once the mnemonic is leaked you may lose all assets and cannot recover them</t>
-  </si>
-  <si>
-    <t>record_mnemonics_tips_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    助记词是用于恢复钱包资产的唯一方式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mnemonics are the only way to restore wallet assets</t>
-  </si>
-  <si>
-    <t>customized_your_KID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    定制你的KID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    customized your KID</t>
-  </si>
-  <si>
-    <t>Avatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    头像</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Avatar</t>
-  </si>
-  <si>
-    <t>Upload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    上传</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Upload</t>
-  </si>
-  <si>
-    <t>Choose_NFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    选择 NFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Choose NFT</t>
-  </si>
-  <si>
-    <t>Nickname</t>
-  </si>
-  <si>
-    <t>昵称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Nickname</t>
-  </si>
-  <si>
-    <t>Complete_setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    完成设置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Complete setup</t>
-  </si>
-  <si>
-    <t>Later</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    稍后</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Later</t>
-  </si>
-  <si>
-    <t>Asset_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    资产价值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Asset value</t>
-  </si>
-  <si>
-    <t>Join_community</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    加入社群</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Join group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    好友关系</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Friends</t>
-  </si>
-  <si>
-    <t>Scan_join_konnect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    扫描加入Konnect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Scan to join konnect</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    share</t>
-  </si>
-  <si>
-    <t>Download_image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Download</t>
-  </si>
-  <si>
-    <t>Copy_link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    复制链接</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Copy link</t>
-  </si>
-  <si>
-    <t>Exclusively_generated_for_your_kid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    已为你生成专属KID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Exclusively generated for your KID</t>
-  </si>
-  <si>
-    <t>cancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    取消</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    cancel</t>
-  </si>
-  <si>
-    <t>wallet_tip1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    如丢失了助记词或私钥，将无法恢复钱包资产；</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    If seed phase or private key is lost wallet assets cannot be recovered</t>
-  </si>
-  <si>
-    <t>wallet_tip2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    请勿与任何人分享你的助记词或私钥，否则资产会有高丢失风险。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Do not share your seed phase or private key with anyone otherwise there is a high risk of asset loss.</t>
-  </si>
-  <si>
-    <t>wallet_tip3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    请妥善保存你的助记词或私钥。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Keep your seed phase and private key safe.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2467,6 +2467,10 @@
       <sz val="10"/>
       <color rgb="FFEA3324"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFE0300"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2498,7 +2502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2527,6 +2531,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4558,18 +4565,18 @@
         <v>384</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1">
       <c r="A156" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="C156" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
@@ -4613,81 +4620,81 @@
         <v>398</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="161" ht="14.25" customHeight="1">
       <c r="A161" s="4" t="s">
-        <v>400</v>
+        <v>202</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>402</v>
+        <v>202</v>
       </c>
     </row>
     <row r="162" ht="14.25" customHeight="1">
       <c r="A162" s="4" t="s">
-        <v>403</v>
+        <v>328</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>403</v>
+        <v>328</v>
       </c>
     </row>
     <row r="163" ht="14.25" customHeight="1">
       <c r="A163" s="4" t="s">
-        <v>202</v>
+        <v>401</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>202</v>
+        <v>401</v>
       </c>
     </row>
     <row r="164" ht="14.25" customHeight="1">
       <c r="A164" s="4" t="s">
-        <v>328</v>
+        <v>403</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>328</v>
+        <v>403</v>
       </c>
     </row>
     <row r="165" ht="14.25" customHeight="1">
       <c r="A165" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="166" ht="14.25" customHeight="1">
       <c r="A166" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="167" ht="14.25" customHeight="1">
       <c r="A167" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>412</v>
@@ -4695,13 +4702,13 @@
     </row>
     <row r="168" ht="14.25" customHeight="1">
       <c r="A168" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="C168" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="169" ht="14.25" customHeight="1">
@@ -4728,46 +4735,46 @@
     </row>
     <row r="171" ht="14.25" customHeight="1">
       <c r="A171" s="4" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="172" ht="14.25" customHeight="1">
       <c r="A172" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
       <c r="A173" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="174" ht="14.25" customHeight="1">
       <c r="A174" s="4" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="175" ht="14.25" customHeight="1">
@@ -4781,14 +4788,14 @@
         <v>433</v>
       </c>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" ht="68.25" customHeight="1">
       <c r="A176" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C176" s="6" t="s">
         <v>436</v>
       </c>
     </row>
@@ -4800,125 +4807,125 @@
         <v>438</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="178" ht="14.25" customHeight="1">
       <c r="A178" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="C178" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="179" ht="14.25" customHeight="1">
+      <c r="A179" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="B179" s="4" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="179" ht="68.25" customHeight="1">
-      <c r="A179" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>445</v>
+      <c r="C179" s="4" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="180" ht="14.25" customHeight="1">
       <c r="A180" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1">
       <c r="A181" s="4" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1">
       <c r="A182" s="4" t="s">
-        <v>450</v>
+        <v>128</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>451</v>
+        <v>128</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>450</v>
+        <v>128</v>
       </c>
     </row>
     <row r="183" ht="14.25" customHeight="1">
       <c r="A183" s="4" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="184" ht="14.25" customHeight="1">
       <c r="A184" s="4" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="185" ht="14.25" customHeight="1">
       <c r="A185" s="4" t="s">
-        <v>128</v>
+        <v>450</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>128</v>
+        <v>451</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>128</v>
+        <v>450</v>
       </c>
     </row>
     <row r="186" ht="14.25" customHeight="1">
       <c r="A186" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="187" ht="14.25" customHeight="1">
       <c r="A187" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="188" ht="14.25" customHeight="1">
       <c r="A188" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>459</v>
@@ -4926,13 +4933,13 @@
     </row>
     <row r="189" ht="14.25" customHeight="1">
       <c r="A189" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="C189" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="190" ht="14.25" customHeight="1">
@@ -4954,37 +4961,37 @@
         <v>467</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="192" ht="14.25" customHeight="1">
       <c r="A192" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="B192" s="4" t="s">
-        <v>470</v>
-      </c>
       <c r="C192" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="193" ht="14.25" customHeight="1">
       <c r="A193" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C193" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1">
       <c r="A194" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>475</v>
@@ -4992,13 +4999,13 @@
     </row>
     <row r="195" ht="14.25" customHeight="1">
       <c r="A195" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B195" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="C195" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="196" ht="14.25" customHeight="1">
@@ -5017,40 +5024,40 @@
         <v>482</v>
       </c>
       <c r="B197" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C197" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="198" ht="14.25" customHeight="1">
       <c r="A198" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B198" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="C198" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="199" ht="14.25" customHeight="1">
       <c r="A199" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="C199" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="200" ht="14.25" customHeight="1">
       <c r="A200" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B200" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>492</v>
@@ -5090,56 +5097,56 @@
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1">
-      <c r="A204" s="4" t="s">
+      <c r="A204" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" s="9" t="s">
         <v>504</v>
       </c>
+      <c r="D204" s="9"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
       <c r="A205" s="4" t="s">
         <v>505</v>
       </c>
       <c r="B205" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1">
       <c r="A206" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B206" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="C206" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="C206" s="4" t="s">
+    </row>
+    <row r="207" ht="14.25" customHeight="1">
+      <c r="A207" s="4" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="207" ht="14.25" customHeight="1">
-      <c r="A207" s="9" t="s">
+      <c r="B207" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="C207" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C207" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="D207" s="9"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
       <c r="A208" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B208" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>515</v>
@@ -5172,62 +5179,62 @@
         <v>522</v>
       </c>
       <c r="B211" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C211" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="212" ht="14.25" customHeight="1">
       <c r="A212" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B212" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="C212" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="213" ht="14.25" customHeight="1">
       <c r="A213" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C213" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="214" ht="14.25" customHeight="1">
       <c r="A214" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="215" ht="14.25" customHeight="1">
       <c r="A215" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B215" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="C215" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="216" ht="14.25" customHeight="1">
       <c r="A216" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>537</v>
@@ -5582,48 +5589,48 @@
         <v>632</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="249" ht="14.25" customHeight="1">
       <c r="A249" s="4" t="s">
-        <v>634</v>
+        <v>43</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="250" ht="14.25" customHeight="1">
       <c r="A250" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="251" ht="14.25" customHeight="1">
       <c r="A251" s="4" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="252" ht="14.25" customHeight="1">
       <c r="A252" s="4" t="s">
-        <v>43</v>
+        <v>640</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>608</v>
+        <v>641</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>642</v>
@@ -5631,106 +5638,106 @@
     </row>
     <row r="253" ht="14.25" customHeight="1">
       <c r="A253" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B253" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="C253" s="4" t="s">
         <v>644</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="254" ht="14.25" customHeight="1">
       <c r="A254" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B254" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="C254" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="255" ht="14.25" customHeight="1">
       <c r="A255" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="B255" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="C255" s="4" t="s">
         <v>650</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="256" ht="14.25" customHeight="1">
       <c r="A256" s="4" t="s">
-        <v>372</v>
+        <v>173</v>
       </c>
       <c r="B256" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C256" s="4" t="s">
         <v>652</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="257" ht="14.25" customHeight="1">
       <c r="A257" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B257" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="C257" s="4" t="s">
         <v>655</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="258" ht="14.25" customHeight="1">
       <c r="A258" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B258" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="C258" s="4" t="s">
         <v>658</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="259" ht="14.25" customHeight="1">
       <c r="A259" s="4" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B259" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C259" s="4" t="s">
         <v>660</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="260" ht="14.25" customHeight="1">
       <c r="A260" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B260" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="C260" s="4" t="s">
         <v>663</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="261" ht="14.25" customHeight="1">
       <c r="A261" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="B261" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="C261" s="4" t="s">
         <v>666</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="262" ht="14.25" customHeight="1">
       <c r="A262" s="4" t="s">
-        <v>160</v>
+        <v>667</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>668</v>
@@ -5741,57 +5748,57 @@
     </row>
     <row r="263" ht="14.25" customHeight="1">
       <c r="A263" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B263" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="C263" s="4" t="s">
         <v>671</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="264" ht="14.25" customHeight="1">
       <c r="A264" s="4" t="s">
-        <v>673</v>
+        <v>65</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>674</v>
+        <v>554</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>675</v>
+        <v>555</v>
       </c>
     </row>
     <row r="265" ht="14.25" customHeight="1">
       <c r="A265" s="4" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="266" ht="14.25" customHeight="1">
       <c r="A266" s="4" t="s">
-        <v>80</v>
+        <v>675</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="267" ht="14.25" customHeight="1">
       <c r="A267" s="4" t="s">
-        <v>65</v>
+        <v>678</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>563</v>
+        <v>679</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>564</v>
+        <v>680</v>
       </c>
     </row>
     <row r="268" ht="14.25" customHeight="1">
@@ -6104,76 +6111,76 @@
     </row>
     <row r="296" ht="14.25" customHeight="1">
       <c r="A296" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B296" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="B296" s="4" t="s">
+      <c r="C296" s="4" t="s">
         <v>766</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="297" ht="14.25" customHeight="1">
       <c r="A297" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B297" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="B297" s="4" t="s">
+      <c r="C297" s="4" t="s">
         <v>769</v>
-      </c>
-      <c r="C297" s="4" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="298" ht="14.25" customHeight="1">
       <c r="A298" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C298" s="4" t="s">
         <v>771</v>
-      </c>
-      <c r="B298" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="C298" s="4" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="299" ht="14.25" customHeight="1">
       <c r="A299" s="4" t="s">
-        <v>328</v>
+        <v>772</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>774</v>
+        <v>649</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="300" ht="14.25" customHeight="1">
       <c r="A300" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="C300" s="4" t="s">
         <v>776</v>
-      </c>
-      <c r="B300" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="301" ht="14.25" customHeight="1">
       <c r="A301" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C301" s="4" t="s">
         <v>779</v>
-      </c>
-      <c r="B301" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="C301" s="4" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="302" ht="14.25" customHeight="1">
       <c r="A302" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B302" s="4" t="s">
         <v>781</v>
-      </c>
-      <c r="B302" s="4" t="s">
-        <v>658</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>782</v>
@@ -6213,13 +6220,13 @@
       </c>
     </row>
     <row r="306" ht="14.25" customHeight="1">
-      <c r="A306" s="4" t="s">
+      <c r="A306" s="10" t="s">
         <v>792</v>
       </c>
-      <c r="B306" s="4" t="s">
+      <c r="B306" s="10" t="s">
         <v>793</v>
       </c>
-      <c r="C306" s="4" t="s">
+      <c r="C306" s="10" t="s">
         <v>794</v>
       </c>
     </row>
